--- a/DATA/collate_cultivar_data_50_percent/data/cleaned_and_sorted_kcp.xlsx
+++ b/DATA/collate_cultivar_data_50_percent/data/cleaned_and_sorted_kcp.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:C479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.1253644</v>
+        <v>0.1399417</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -444,7 +444,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.1399417</v>
+        <v>0.1253644</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -455,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.1146497</v>
+        <v>0.111465</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -466,7 +466,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.111465</v>
+        <v>0.1146497</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -488,7 +488,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.0790698</v>
+        <v>0.1273585</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>0.1209302</v>
+        <v>0.0790698</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -510,7 +510,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>0.1273585</v>
+        <v>0.1209302</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -543,7 +543,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>0.0541516</v>
+        <v>0.1407942</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -554,7 +554,7 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>0.1407942</v>
+        <v>0.0541516</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -598,7 +598,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.1029186</v>
+        <v>0.0552326</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -609,7 +609,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.1046512</v>
+        <v>0.1029186</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -631,7 +631,7 @@
         <v>18</v>
       </c>
       <c r="C22">
-        <v>0.0552326</v>
+        <v>0.1046512</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -730,7 +730,7 @@
         <v>23</v>
       </c>
       <c r="C31">
-        <v>0.0988024</v>
+        <v>0.1127451</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -741,7 +741,7 @@
         <v>23</v>
       </c>
       <c r="C32">
-        <v>0.1127451</v>
+        <v>0.1107784</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -763,7 +763,7 @@
         <v>23</v>
       </c>
       <c r="C34">
-        <v>0.1107784</v>
+        <v>0.0988024</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -774,7 +774,7 @@
         <v>24</v>
       </c>
       <c r="C35">
-        <v>0.1428571</v>
+        <v>0.1190476</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -785,7 +785,7 @@
         <v>24</v>
       </c>
       <c r="C36">
-        <v>0.1190476</v>
+        <v>0.1428571</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -873,7 +873,7 @@
         <v>32</v>
       </c>
       <c r="C44">
-        <v>0.1420455</v>
+        <v>0.08522730000000001</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -884,7 +884,7 @@
         <v>32</v>
       </c>
       <c r="C45">
-        <v>0.08522730000000001</v>
+        <v>0.1420455</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -917,7 +917,7 @@
         <v>34</v>
       </c>
       <c r="C48">
-        <v>0.1384615</v>
+        <v>0.124031</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -928,7 +928,7 @@
         <v>34</v>
       </c>
       <c r="C49">
-        <v>0.124031</v>
+        <v>0.1384615</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -950,7 +950,7 @@
         <v>35</v>
       </c>
       <c r="C51">
-        <v>0.1243523</v>
+        <v>0.1088083</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -961,7 +961,7 @@
         <v>35</v>
       </c>
       <c r="C52">
-        <v>0.1088083</v>
+        <v>0.1243523</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -983,7 +983,7 @@
         <v>37</v>
       </c>
       <c r="C54">
-        <v>0.107438</v>
+        <v>0.0619835</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -994,7 +994,7 @@
         <v>37</v>
       </c>
       <c r="C55">
-        <v>0.1487603</v>
+        <v>0.107438</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>37</v>
       </c>
       <c r="C56">
-        <v>0.0619835</v>
+        <v>0.1487603</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1027,7 +1027,7 @@
         <v>38</v>
       </c>
       <c r="C58">
-        <v>0.09157510000000001</v>
+        <v>0.0695971</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>38</v>
       </c>
       <c r="C60">
-        <v>0.0695971</v>
+        <v>0.09157510000000001</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1137,7 +1137,7 @@
         <v>45</v>
       </c>
       <c r="C68">
-        <v>0.0674157</v>
+        <v>0.1741573</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>45</v>
       </c>
       <c r="C69">
-        <v>0.1741573</v>
+        <v>0.0674157</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>49</v>
       </c>
       <c r="C70">
-        <v>0.1318052</v>
+        <v>0.145749</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1170,7 +1170,7 @@
         <v>49</v>
       </c>
       <c r="C71">
-        <v>0.145749</v>
+        <v>0.1318052</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>50</v>
       </c>
       <c r="C73">
-        <v>0.0808625</v>
+        <v>0.1698113</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>50</v>
       </c>
       <c r="C74">
-        <v>0.1698113</v>
+        <v>0.0808625</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>54</v>
       </c>
       <c r="C78">
-        <v>0.1628788</v>
+        <v>0.1022727</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>54</v>
       </c>
       <c r="C79">
-        <v>0.095679</v>
+        <v>0.0606061</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>54</v>
       </c>
       <c r="C80">
-        <v>0.0606061</v>
+        <v>0.1628788</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>54</v>
       </c>
       <c r="C81">
-        <v>0.1022727</v>
+        <v>0.095679</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>62</v>
       </c>
       <c r="C85">
-        <v>0.1232493</v>
+        <v>0.1192308</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>62</v>
       </c>
       <c r="C86">
-        <v>0.1176471</v>
+        <v>0.1232493</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>62</v>
       </c>
       <c r="C87">
-        <v>0.1192308</v>
+        <v>0.1176471</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>70</v>
       </c>
       <c r="C94">
-        <v>0.1233596</v>
+        <v>0.1138015</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>70</v>
       </c>
       <c r="C95">
-        <v>0.1138015</v>
+        <v>0.0524934</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>70</v>
       </c>
       <c r="C97">
-        <v>0.0524934</v>
+        <v>0.1233596</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>72</v>
       </c>
       <c r="C100">
-        <v>0.0751445</v>
+        <v>0.1404959</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>72</v>
       </c>
       <c r="C101">
-        <v>0.0826446</v>
+        <v>0.0751445</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>72</v>
       </c>
       <c r="C102">
-        <v>0.1404959</v>
+        <v>0.1416185</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>72</v>
       </c>
       <c r="C103">
-        <v>0.1416185</v>
+        <v>0.0826446</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1577,7 +1577,7 @@
         <v>75</v>
       </c>
       <c r="C108">
-        <v>0.1428571</v>
+        <v>0.1435897</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1588,7 +1588,7 @@
         <v>75</v>
       </c>
       <c r="C109">
-        <v>0.09230770000000001</v>
+        <v>0.1418919</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1610,7 +1610,7 @@
         <v>75</v>
       </c>
       <c r="C111">
-        <v>0.1435897</v>
+        <v>0.09230770000000001</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1621,7 +1621,7 @@
         <v>75</v>
       </c>
       <c r="C112">
-        <v>0.1418919</v>
+        <v>0.0506757</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1632,7 +1632,7 @@
         <v>75</v>
       </c>
       <c r="C113">
-        <v>0.0506757</v>
+        <v>0.1428571</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1665,7 +1665,7 @@
         <v>76</v>
       </c>
       <c r="C116">
-        <v>0.0898876</v>
+        <v>0.059761</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1676,7 +1676,7 @@
         <v>76</v>
       </c>
       <c r="C117">
-        <v>0.059761</v>
+        <v>0.1356784</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1687,7 +1687,7 @@
         <v>76</v>
       </c>
       <c r="C118">
-        <v>0.1356784</v>
+        <v>0.0898876</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1698,7 +1698,7 @@
         <v>77</v>
       </c>
       <c r="C119">
-        <v>0.0932945</v>
+        <v>0.1049563</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1709,7 +1709,7 @@
         <v>77</v>
       </c>
       <c r="C120">
-        <v>0.1049563</v>
+        <v>0.0612245</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1720,7 +1720,7 @@
         <v>77</v>
       </c>
       <c r="C121">
-        <v>0.0612245</v>
+        <v>0.1119792</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>77</v>
       </c>
       <c r="C122">
-        <v>0.1119792</v>
+        <v>0.0932945</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1742,7 +1742,7 @@
         <v>78</v>
       </c>
       <c r="C123">
-        <v>0.09843399999999999</v>
+        <v>0.114094</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1753,7 +1753,7 @@
         <v>78</v>
       </c>
       <c r="C124">
-        <v>0.114094</v>
+        <v>0.1072261</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1764,7 +1764,7 @@
         <v>78</v>
       </c>
       <c r="C125">
-        <v>0.1072261</v>
+        <v>0.09843399999999999</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1775,7 +1775,7 @@
         <v>79</v>
       </c>
       <c r="C126">
-        <v>0.1389474</v>
+        <v>0.1305263</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1786,7 +1786,7 @@
         <v>79</v>
       </c>
       <c r="C127">
-        <v>0.1305263</v>
+        <v>0.1389474</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1852,7 +1852,7 @@
         <v>83</v>
       </c>
       <c r="C133">
-        <v>0.1466667</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1874,7 +1874,7 @@
         <v>83</v>
       </c>
       <c r="C135">
-        <v>0.125</v>
+        <v>0.1466667</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1918,7 +1918,7 @@
         <v>85</v>
       </c>
       <c r="C139">
-        <v>0.0841837</v>
+        <v>0.1352041</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1929,7 +1929,7 @@
         <v>85</v>
       </c>
       <c r="C140">
-        <v>0.1041667</v>
+        <v>0.0841837</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1951,7 +1951,7 @@
         <v>85</v>
       </c>
       <c r="C142">
-        <v>0.1352041</v>
+        <v>0.1041667</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2006,7 +2006,7 @@
         <v>89</v>
       </c>
       <c r="C147">
-        <v>0.0590717</v>
+        <v>0.1329114</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2017,7 +2017,7 @@
         <v>89</v>
       </c>
       <c r="C148">
-        <v>0.07383969999999999</v>
+        <v>0.07805910000000001</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2028,7 +2028,7 @@
         <v>89</v>
       </c>
       <c r="C149">
-        <v>0.1329114</v>
+        <v>0.0590717</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2039,7 +2039,7 @@
         <v>89</v>
       </c>
       <c r="C150">
-        <v>0.07805910000000001</v>
+        <v>0.0888383</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2050,7 +2050,7 @@
         <v>89</v>
       </c>
       <c r="C151">
-        <v>0.0888383</v>
+        <v>0.07383969999999999</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2061,7 +2061,7 @@
         <v>90</v>
       </c>
       <c r="C152">
-        <v>0.1066282</v>
+        <v>0.08461539999999999</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2072,7 +2072,7 @@
         <v>90</v>
       </c>
       <c r="C153">
-        <v>0.0835735</v>
+        <v>0.1066282</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2083,7 +2083,7 @@
         <v>90</v>
       </c>
       <c r="C154">
-        <v>0.1384615</v>
+        <v>0.0835735</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2094,7 +2094,7 @@
         <v>90</v>
       </c>
       <c r="C155">
-        <v>0.08461539999999999</v>
+        <v>0.1384615</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2116,7 +2116,7 @@
         <v>91</v>
       </c>
       <c r="C157">
-        <v>0.09090910000000001</v>
+        <v>0.1431767</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2138,7 +2138,7 @@
         <v>91</v>
       </c>
       <c r="C159">
-        <v>0.1431767</v>
+        <v>0.09090910000000001</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2171,7 +2171,7 @@
         <v>92</v>
       </c>
       <c r="C162">
-        <v>0.1840278</v>
+        <v>0.08860759999999999</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2193,7 +2193,7 @@
         <v>92</v>
       </c>
       <c r="C164">
-        <v>0.08860759999999999</v>
+        <v>0.1840278</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2204,7 +2204,7 @@
         <v>93</v>
       </c>
       <c r="C165">
-        <v>0.1332149</v>
+        <v>0.0979782</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2215,7 +2215,7 @@
         <v>93</v>
       </c>
       <c r="C166">
-        <v>0.1278863</v>
+        <v>0.0917574</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2226,7 +2226,7 @@
         <v>93</v>
       </c>
       <c r="C167">
-        <v>0.0979782</v>
+        <v>0.1278863</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2237,7 +2237,7 @@
         <v>93</v>
       </c>
       <c r="C168">
-        <v>0.0822368</v>
+        <v>0.1332149</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2248,7 +2248,7 @@
         <v>93</v>
       </c>
       <c r="C169">
-        <v>0.0917574</v>
+        <v>0.0822368</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2259,7 +2259,7 @@
         <v>94</v>
       </c>
       <c r="C170">
-        <v>0.2232824</v>
+        <v>0.0763359</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2270,7 +2270,7 @@
         <v>94</v>
       </c>
       <c r="C171">
-        <v>0.0763359</v>
+        <v>0.2232824</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2336,7 +2336,7 @@
         <v>97</v>
       </c>
       <c r="C177">
-        <v>0.1236364</v>
+        <v>0.1254545</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2347,7 +2347,7 @@
         <v>97</v>
       </c>
       <c r="C178">
-        <v>0.1254545</v>
+        <v>0.1236364</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2402,7 +2402,7 @@
         <v>101</v>
       </c>
       <c r="C183">
-        <v>0.1855422</v>
+        <v>0.2135922</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2424,7 +2424,7 @@
         <v>101</v>
       </c>
       <c r="C185">
-        <v>0.1966019</v>
+        <v>0.1855422</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2435,7 +2435,7 @@
         <v>101</v>
       </c>
       <c r="C186">
-        <v>0.2135922</v>
+        <v>0.1966019</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2490,7 +2490,7 @@
         <v>103</v>
       </c>
       <c r="C191">
-        <v>0.1954545</v>
+        <v>0.0886364</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2501,7 +2501,7 @@
         <v>103</v>
       </c>
       <c r="C192">
-        <v>0.0886364</v>
+        <v>0.1637168</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2512,7 +2512,7 @@
         <v>103</v>
       </c>
       <c r="C193">
-        <v>0.1637168</v>
+        <v>0.1840909</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2523,7 +2523,7 @@
         <v>103</v>
       </c>
       <c r="C194">
-        <v>0.1840909</v>
+        <v>0.1438053</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2534,7 +2534,7 @@
         <v>103</v>
       </c>
       <c r="C195">
-        <v>0.1438053</v>
+        <v>0.1954545</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2545,7 +2545,7 @@
         <v>104</v>
       </c>
       <c r="C196">
-        <v>0.1268382</v>
+        <v>0.1709559</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2567,7 +2567,7 @@
         <v>104</v>
       </c>
       <c r="C198">
-        <v>0.2177122</v>
+        <v>0.1268382</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2589,7 +2589,7 @@
         <v>104</v>
       </c>
       <c r="C200">
-        <v>0.1943888</v>
+        <v>0.2177122</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2600,7 +2600,7 @@
         <v>104</v>
       </c>
       <c r="C201">
-        <v>0.1709559</v>
+        <v>0.1943888</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2644,7 +2644,7 @@
         <v>118</v>
       </c>
       <c r="C205">
-        <v>0.1031308</v>
+        <v>0.213628</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2666,7 +2666,7 @@
         <v>118</v>
       </c>
       <c r="C207">
-        <v>0.213628</v>
+        <v>0.1031308</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2699,7 +2699,7 @@
         <v>120</v>
       </c>
       <c r="C210">
-        <v>0.1193353</v>
+        <v>0.1767372</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2710,7 +2710,7 @@
         <v>120</v>
       </c>
       <c r="C211">
-        <v>0.1767372</v>
+        <v>0.1193353</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2721,7 +2721,7 @@
         <v>121</v>
       </c>
       <c r="C212">
-        <v>0.1136045</v>
+        <v>0.1458626</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2732,7 +2732,7 @@
         <v>121</v>
       </c>
       <c r="C213">
-        <v>0.1458626</v>
+        <v>0.1136045</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2897,7 +2897,7 @@
         <v>146</v>
       </c>
       <c r="C228">
-        <v>0.4010417</v>
+        <v>0.3663194</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2908,7 +2908,7 @@
         <v>146</v>
       </c>
       <c r="C229">
-        <v>0.3663194</v>
+        <v>0.4010417</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3029,7 +3029,7 @@
         <v>156</v>
       </c>
       <c r="C240">
-        <v>0.4278075</v>
+        <v>0.5288462</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3051,7 +3051,7 @@
         <v>156</v>
       </c>
       <c r="C242">
-        <v>0.5288462</v>
+        <v>0.4278075</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3326,7 +3326,7 @@
         <v>187</v>
       </c>
       <c r="C267">
-        <v>0.5576923</v>
+        <v>0.4344392</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3337,7 +3337,7 @@
         <v>187</v>
       </c>
       <c r="C268">
-        <v>0.4344392</v>
+        <v>0.5576923</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3348,7 +3348,7 @@
         <v>189</v>
       </c>
       <c r="C269">
-        <v>0.2743506</v>
+        <v>0.5909091</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3359,7 +3359,7 @@
         <v>189</v>
       </c>
       <c r="C270">
-        <v>0.4017857</v>
+        <v>0.400974</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3370,7 +3370,7 @@
         <v>189</v>
       </c>
       <c r="C271">
-        <v>0.400974</v>
+        <v>0.2743506</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3381,7 +3381,7 @@
         <v>189</v>
       </c>
       <c r="C272">
-        <v>0.5909091</v>
+        <v>0.4017857</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3392,7 +3392,7 @@
         <v>190</v>
       </c>
       <c r="C273">
-        <v>0.6779412</v>
+        <v>0.2897059</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3403,7 +3403,7 @@
         <v>190</v>
       </c>
       <c r="C274">
-        <v>0.2897059</v>
+        <v>0.6779412</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3425,7 +3425,7 @@
         <v>194</v>
       </c>
       <c r="C276">
-        <v>0.4267442</v>
+        <v>0.3188623</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3436,7 +3436,7 @@
         <v>194</v>
       </c>
       <c r="C277">
-        <v>0.3188623</v>
+        <v>0.4267442</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3458,7 +3458,7 @@
         <v>197</v>
       </c>
       <c r="C279">
-        <v>0.3317972</v>
+        <v>0.6212361</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3469,7 +3469,7 @@
         <v>197</v>
       </c>
       <c r="C280">
-        <v>0.6212361</v>
+        <v>0.3317972</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3480,7 +3480,7 @@
         <v>198</v>
       </c>
       <c r="C281">
-        <v>0.6269231</v>
+        <v>0.6528777</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3491,7 +3491,7 @@
         <v>198</v>
       </c>
       <c r="C282">
-        <v>0.6528777</v>
+        <v>0.6269231</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3524,7 +3524,7 @@
         <v>199</v>
       </c>
       <c r="C285">
-        <v>0.5191041</v>
+        <v>0.5072464</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3535,7 +3535,7 @@
         <v>199</v>
       </c>
       <c r="C286">
-        <v>0.5072464</v>
+        <v>0.5191041</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3568,7 +3568,7 @@
         <v>203</v>
       </c>
       <c r="C289">
-        <v>0.5944584000000001</v>
+        <v>0.5660036000000001</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3579,7 +3579,7 @@
         <v>203</v>
       </c>
       <c r="C290">
-        <v>0.7443609</v>
+        <v>0.5944584000000001</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3590,7 +3590,7 @@
         <v>203</v>
       </c>
       <c r="C291">
-        <v>0.5660036000000001</v>
+        <v>0.7443609</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3700,7 +3700,7 @@
         <v>210</v>
       </c>
       <c r="C301">
-        <v>0.3636364</v>
+        <v>0.5355932</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3711,7 +3711,7 @@
         <v>210</v>
       </c>
       <c r="C302">
-        <v>0.5355932</v>
+        <v>0.3636364</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3733,7 +3733,7 @@
         <v>211</v>
       </c>
       <c r="C304">
-        <v>0.5507246</v>
+        <v>0.3379416</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3744,7 +3744,7 @@
         <v>211</v>
       </c>
       <c r="C305">
-        <v>0.3010753</v>
+        <v>0.4456522</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3755,7 +3755,7 @@
         <v>211</v>
       </c>
       <c r="C306">
-        <v>0.3379416</v>
+        <v>0.3010753</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3766,7 +3766,7 @@
         <v>211</v>
       </c>
       <c r="C307">
-        <v>0.4456522</v>
+        <v>0.5507246</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3810,7 +3810,7 @@
         <v>214</v>
       </c>
       <c r="C311">
-        <v>0.423913</v>
+        <v>0.3900344</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3821,7 +3821,7 @@
         <v>214</v>
       </c>
       <c r="C312">
-        <v>0.3900344</v>
+        <v>0.423913</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3832,7 +3832,7 @@
         <v>215</v>
       </c>
       <c r="C313">
-        <v>0.2920792</v>
+        <v>0.3333333</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3843,7 +3843,7 @@
         <v>215</v>
       </c>
       <c r="C314">
-        <v>0.3333333</v>
+        <v>0.2920792</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3854,7 +3854,7 @@
         <v>216</v>
       </c>
       <c r="C315">
-        <v>0.3191176</v>
+        <v>0.3642241</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3865,7 +3865,7 @@
         <v>216</v>
       </c>
       <c r="C316">
-        <v>0.3642241</v>
+        <v>0.3191176</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3876,7 +3876,7 @@
         <v>217</v>
       </c>
       <c r="C317">
-        <v>0.5736926</v>
+        <v>0.3359746</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3887,7 +3887,7 @@
         <v>217</v>
       </c>
       <c r="C318">
-        <v>0.3359746</v>
+        <v>0.5736926</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>221</v>
       </c>
       <c r="C325">
-        <v>0.6666666999999999</v>
+        <v>0.3982169</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3975,7 +3975,7 @@
         <v>221</v>
       </c>
       <c r="C326">
-        <v>0.3982169</v>
+        <v>0.3469055</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3986,7 +3986,7 @@
         <v>221</v>
       </c>
       <c r="C327">
-        <v>0.3469055</v>
+        <v>0.4769688</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3997,7 +3997,7 @@
         <v>221</v>
       </c>
       <c r="C328">
-        <v>0.4769688</v>
+        <v>0.6666666999999999</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4063,7 +4063,7 @@
         <v>228</v>
       </c>
       <c r="C334">
-        <v>0.6065891</v>
+        <v>0.2583732</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4074,7 +4074,7 @@
         <v>228</v>
       </c>
       <c r="C335">
-        <v>0.2583732</v>
+        <v>0.6065891</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4085,7 +4085,7 @@
         <v>229</v>
       </c>
       <c r="C336">
-        <v>0.6424051</v>
+        <v>0.3402923</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4096,7 +4096,7 @@
         <v>229</v>
       </c>
       <c r="C337">
-        <v>0.3402923</v>
+        <v>0.6424051</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4107,7 +4107,7 @@
         <v>230</v>
       </c>
       <c r="C338">
-        <v>0.4797794</v>
+        <v>0.3713235</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4118,7 +4118,7 @@
         <v>230</v>
       </c>
       <c r="C339">
-        <v>0.3713235</v>
+        <v>0.4797794</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4129,7 +4129,7 @@
         <v>231</v>
       </c>
       <c r="C340">
-        <v>0.4540902</v>
+        <v>0.2956204</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4140,7 +4140,7 @@
         <v>231</v>
       </c>
       <c r="C341">
-        <v>0.2704508</v>
+        <v>0.4540902</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4151,7 +4151,7 @@
         <v>231</v>
       </c>
       <c r="C342">
-        <v>0.2956204</v>
+        <v>0.2704508</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4162,7 +4162,7 @@
         <v>232</v>
       </c>
       <c r="C343">
-        <v>0.3292929</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4173,7 +4173,7 @@
         <v>232</v>
       </c>
       <c r="C344">
-        <v>0.3625</v>
+        <v>0.3292929</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4349,7 +4349,7 @@
         <v>242</v>
       </c>
       <c r="C360">
-        <v>0.4646782</v>
+        <v>0.43898</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4360,7 +4360,7 @@
         <v>242</v>
       </c>
       <c r="C361">
-        <v>0.43898</v>
+        <v>0.4646782</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4415,7 +4415,7 @@
         <v>247</v>
       </c>
       <c r="C366">
-        <v>0.5961071</v>
+        <v>0.3944954</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4437,7 +4437,7 @@
         <v>247</v>
       </c>
       <c r="C368">
-        <v>0.3944954</v>
+        <v>0.5961071</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4492,7 +4492,7 @@
         <v>254</v>
       </c>
       <c r="C373">
-        <v>0.6770073</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4503,7 +4503,7 @@
         <v>254</v>
       </c>
       <c r="C374">
-        <v>0.5</v>
+        <v>0.6770073</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4514,7 +4514,7 @@
         <v>255</v>
       </c>
       <c r="C375">
-        <v>0.4123711</v>
+        <v>0.5953608</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4525,7 +4525,7 @@
         <v>255</v>
       </c>
       <c r="C376">
-        <v>0.3228621</v>
+        <v>0.2525773</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4547,7 +4547,7 @@
         <v>255</v>
       </c>
       <c r="C378">
-        <v>0.5953608</v>
+        <v>0.3228621</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4558,7 +4558,7 @@
         <v>255</v>
       </c>
       <c r="C379">
-        <v>0.5270506</v>
+        <v>0.4123711</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4569,7 +4569,7 @@
         <v>255</v>
       </c>
       <c r="C380">
-        <v>0.2525773</v>
+        <v>0.5270506</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4580,7 +4580,7 @@
         <v>256</v>
       </c>
       <c r="C381">
-        <v>0.264881</v>
+        <v>0.327381</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4591,7 +4591,7 @@
         <v>256</v>
       </c>
       <c r="C382">
-        <v>0.327381</v>
+        <v>0.5809935000000001</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4602,7 +4602,7 @@
         <v>256</v>
       </c>
       <c r="C383">
-        <v>0.5809935000000001</v>
+        <v>0.264881</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4646,7 +4646,7 @@
         <v>259</v>
       </c>
       <c r="C387">
-        <v>0.3449692</v>
+        <v>0.592668</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4657,7 +4657,7 @@
         <v>259</v>
       </c>
       <c r="C388">
-        <v>0.592668</v>
+        <v>0.4233871</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4668,7 +4668,7 @@
         <v>259</v>
       </c>
       <c r="C389">
-        <v>0.4233871</v>
+        <v>0.5494505</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4679,7 +4679,7 @@
         <v>259</v>
       </c>
       <c r="C390">
-        <v>0.5494505</v>
+        <v>0.3449692</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4690,7 +4690,7 @@
         <v>260</v>
       </c>
       <c r="C391">
-        <v>0.5670103</v>
+        <v>0.2927835</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4701,7 +4701,7 @@
         <v>260</v>
       </c>
       <c r="C392">
-        <v>0.2927835</v>
+        <v>0.4324324</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4712,7 +4712,7 @@
         <v>260</v>
       </c>
       <c r="C393">
-        <v>0.4324324</v>
+        <v>0.5670103</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4723,7 +4723,7 @@
         <v>261</v>
       </c>
       <c r="C394">
-        <v>0.2719101</v>
+        <v>0.3315927</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4734,7 +4734,7 @@
         <v>261</v>
       </c>
       <c r="C395">
-        <v>0.3315927</v>
+        <v>0.2719101</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4789,7 +4789,7 @@
         <v>266</v>
       </c>
       <c r="C400">
-        <v>0.3318486</v>
+        <v>0.2694878</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4811,7 +4811,7 @@
         <v>266</v>
       </c>
       <c r="C402">
-        <v>0.4403292</v>
+        <v>0.2880658</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4822,7 +4822,7 @@
         <v>266</v>
       </c>
       <c r="C403">
-        <v>0.2880658</v>
+        <v>0.4403292</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4833,7 +4833,7 @@
         <v>266</v>
       </c>
       <c r="C404">
-        <v>0.2694878</v>
+        <v>0.3318486</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4844,7 +4844,7 @@
         <v>267</v>
       </c>
       <c r="C405">
-        <v>0.2696391</v>
+        <v>0.3086053</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4855,7 +4855,7 @@
         <v>267</v>
       </c>
       <c r="C406">
-        <v>0.3086053</v>
+        <v>0.2696391</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4888,7 +4888,7 @@
         <v>271</v>
       </c>
       <c r="C409">
-        <v>0.2966752</v>
+        <v>0.6512605</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4899,7 +4899,7 @@
         <v>271</v>
       </c>
       <c r="C410">
-        <v>0.6512605</v>
+        <v>0.2478992</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4910,7 +4910,7 @@
         <v>271</v>
       </c>
       <c r="C411">
-        <v>0.2478992</v>
+        <v>0.2966752</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4965,7 +4965,7 @@
         <v>275</v>
       </c>
       <c r="C416">
-        <v>0.3431085</v>
+        <v>0.4662757</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4976,7 +4976,7 @@
         <v>275</v>
       </c>
       <c r="C417">
-        <v>0.4662757</v>
+        <v>0.3431085</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -5020,7 +5020,7 @@
         <v>280</v>
       </c>
       <c r="C421">
-        <v>0.5927602</v>
+        <v>0.5641026</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5031,7 +5031,7 @@
         <v>280</v>
       </c>
       <c r="C422">
-        <v>0.5641026</v>
+        <v>0.5927602</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5053,7 +5053,7 @@
         <v>281</v>
       </c>
       <c r="C424">
-        <v>0.2566735</v>
+        <v>0.2231076</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5064,7 +5064,7 @@
         <v>281</v>
       </c>
       <c r="C425">
-        <v>0.2231076</v>
+        <v>0.2566735</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5097,7 +5097,7 @@
         <v>284</v>
       </c>
       <c r="C428">
-        <v>0.2928571</v>
+        <v>0.264624</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5108,7 +5108,7 @@
         <v>284</v>
       </c>
       <c r="C429">
-        <v>0.264624</v>
+        <v>0.2924791</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5119,7 +5119,7 @@
         <v>284</v>
       </c>
       <c r="C430">
-        <v>0.2924791</v>
+        <v>0.2928571</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5196,7 +5196,7 @@
         <v>289</v>
       </c>
       <c r="C437">
-        <v>0.4387528</v>
+        <v>0.5033408</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5207,7 +5207,7 @@
         <v>289</v>
       </c>
       <c r="C438">
-        <v>0.5033408</v>
+        <v>0.4387528</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5240,7 +5240,7 @@
         <v>293</v>
       </c>
       <c r="C441">
-        <v>0.3888889</v>
+        <v>0.5496368</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5251,7 +5251,7 @@
         <v>293</v>
       </c>
       <c r="C442">
-        <v>0.5496368</v>
+        <v>0.3888889</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5273,7 +5273,7 @@
         <v>296</v>
       </c>
       <c r="C444">
-        <v>0.2135076</v>
+        <v>0.540305</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5284,7 +5284,7 @@
         <v>296</v>
       </c>
       <c r="C445">
-        <v>0.414966</v>
+        <v>0.2135076</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5306,7 +5306,7 @@
         <v>296</v>
       </c>
       <c r="C447">
-        <v>0.540305</v>
+        <v>0.414966</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5317,7 +5317,7 @@
         <v>298</v>
       </c>
       <c r="C448">
-        <v>0.3725</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5328,7 +5328,7 @@
         <v>298</v>
       </c>
       <c r="C449">
-        <v>0.35</v>
+        <v>0.3725</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5344,46 +5344,46 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2">
-        <v>43217</v>
+        <v>43218</v>
       </c>
       <c r="B451">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C451">
-        <v>0.4466019</v>
+        <v>0.5684932</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="2">
-        <v>43218</v>
+        <v>43222</v>
       </c>
       <c r="B452">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C452">
-        <v>0.2291169</v>
+        <v>0.2412587</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="2">
-        <v>43218</v>
+        <v>43223</v>
       </c>
       <c r="B453">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C453">
-        <v>0.5684932</v>
+        <v>0.1147059</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="2">
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="B454">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C454">
-        <v>0.2412587</v>
+        <v>0.2823529</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5399,112 +5399,112 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="2">
-        <v>43223</v>
+        <v>43224</v>
       </c>
       <c r="B456">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C456">
-        <v>0.2823529</v>
+        <v>0.2011494</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="2">
-        <v>43223</v>
+        <v>43225</v>
       </c>
       <c r="B457">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C457">
-        <v>0.1147059</v>
+        <v>0.1826625</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="2">
-        <v>43224</v>
+        <v>43226</v>
       </c>
       <c r="B458">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C458">
-        <v>0.2011494</v>
+        <v>0.1657609</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="2">
-        <v>43225</v>
+        <v>43226</v>
       </c>
       <c r="B459">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C459">
-        <v>0.1826625</v>
+        <v>0.1168478</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="2">
-        <v>43226</v>
+        <v>43228</v>
       </c>
       <c r="B460">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C460">
-        <v>0.1168478</v>
+        <v>0.2068966</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="2">
-        <v>43226</v>
+        <v>43232</v>
       </c>
       <c r="B461">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C461">
-        <v>0.1657609</v>
+        <v>0.2135417</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="2">
-        <v>43228</v>
+        <v>43233</v>
       </c>
       <c r="B462">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C462">
-        <v>0.2068966</v>
+        <v>0.2086168</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="2">
-        <v>43232</v>
+        <v>43233</v>
       </c>
       <c r="B463">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C463">
-        <v>0.2135417</v>
+        <v>0.1375661</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="2">
-        <v>43233</v>
+        <v>43234</v>
       </c>
       <c r="B464">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C464">
-        <v>0.1375661</v>
+        <v>0.2436548</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="2">
-        <v>43233</v>
+        <v>43234</v>
       </c>
       <c r="B465">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C465">
-        <v>0.2086168</v>
+        <v>0.1015228</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5515,171 +5515,149 @@
         <v>317</v>
       </c>
       <c r="C466">
-        <v>0.2436548</v>
+        <v>0.1458333</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="2">
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="B467">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C467">
-        <v>0.1015228</v>
+        <v>0.1153846</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="2">
-        <v>43234</v>
+        <v>43237</v>
       </c>
       <c r="B468">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C468">
-        <v>0.1458333</v>
+        <v>0.2754491</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="2">
-        <v>43235</v>
+        <v>43238</v>
       </c>
       <c r="B469">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C469">
-        <v>0.1153846</v>
+        <v>0.2558824</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="2">
-        <v>43237</v>
+        <v>43239</v>
       </c>
       <c r="B470">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C470">
-        <v>0.2754491</v>
+        <v>0.2258065</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="2">
-        <v>43238</v>
+        <v>43243</v>
       </c>
       <c r="B471">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C471">
-        <v>0.2558824</v>
+        <v>0.2008547</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="2">
-        <v>43239</v>
+        <v>43244</v>
       </c>
       <c r="B472">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C472">
-        <v>0.2258065</v>
+        <v>0.2469636</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="2">
-        <v>43243</v>
+        <v>43247</v>
       </c>
       <c r="B473">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C473">
-        <v>0.2008547</v>
+        <v>0.1504065</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="2">
-        <v>43244</v>
+        <v>43248</v>
       </c>
       <c r="B474">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C474">
-        <v>0.2469636</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="2">
-        <v>43247</v>
+        <v>43248</v>
       </c>
       <c r="B475">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C475">
-        <v>0.1504065</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="2">
-        <v>43248</v>
+        <v>43252</v>
       </c>
       <c r="B476">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C476">
-        <v>0.25</v>
+        <v>0.0662021</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="2">
-        <v>43248</v>
+        <v>43261</v>
       </c>
       <c r="B477">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C477">
-        <v>0.125</v>
+        <v>0.0943396</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="2">
-        <v>43252</v>
+        <v>43265</v>
       </c>
       <c r="B478">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="C478">
-        <v>0.0662021</v>
+        <v>0.1434109</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="2">
-        <v>43261</v>
+        <v>43265</v>
       </c>
       <c r="B479">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C479">
-        <v>0.0943396</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3">
-      <c r="A480" s="2">
-        <v>43265</v>
-      </c>
-      <c r="B480">
-        <v>348</v>
-      </c>
-      <c r="C480">
-        <v>0.1434109</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3">
-      <c r="A481" s="2">
-        <v>43265</v>
-      </c>
-      <c r="B481">
-        <v>348</v>
-      </c>
-      <c r="C481">
         <v>0.1046512</v>
       </c>
     </row>
